--- a/workbooks/Research Performance Tracker.xlsx
+++ b/workbooks/Research Performance Tracker.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="335">
   <si>
     <t>Stocks</t>
   </si>
@@ -1043,24 +1043,6 @@
   </si>
   <si>
     <t>Options Calls reports will be uploaded in this excel format.</t>
-  </si>
-  <si>
-    <t>EQ0030</t>
-  </si>
-  <si>
-    <t>Anu</t>
-  </si>
-  <si>
-    <t>EQ0024-1</t>
-  </si>
-  <si>
-    <t>EQ0029-1</t>
-  </si>
-  <si>
-    <t>EQ0020-2</t>
-  </si>
-  <si>
-    <t>EQ0024-2</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1805,11 +1787,32 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1817,8 +1820,89 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1834,9 +1918,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1862,104 +1943,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2283,22 +2271,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
     </row>
     <row r="2" spans="1:14" s="84" customFormat="1">
       <c r="A2" s="84" t="s">
@@ -2348,30 +2336,30 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="117"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
@@ -2441,35 +2429,35 @@
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="110"/>
-      <c r="O30" s="113" t="s">
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="108"/>
+      <c r="O30" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="114"/>
-      <c r="Y30" s="114"/>
-      <c r="Z30" s="114"/>
-      <c r="AA30" s="115"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="117"/>
+      <c r="R30" s="117"/>
+      <c r="S30" s="117"/>
+      <c r="T30" s="117"/>
+      <c r="U30" s="117"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="117"/>
+      <c r="X30" s="117"/>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="117"/>
+      <c r="AA30" s="118"/>
     </row>
     <row r="31" spans="1:27" ht="15" thickTop="1">
       <c r="A31" s="5" t="s">
@@ -2540,17 +2528,17 @@
       <c r="AA33" s="39"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
@@ -2587,9 +2575,9 @@
       <c r="G35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="119"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
@@ -2691,108 +2679,108 @@
       <c r="AA38" s="39"/>
     </row>
     <row r="39" spans="1:27" ht="45" customHeight="1">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="123" t="s">
+      <c r="B39" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="88" t="s">
+      <c r="E39" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="90" t="s">
+      <c r="F39" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="90" t="s">
+      <c r="G39" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="90" t="s">
+      <c r="H39" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="88" t="s">
+      <c r="I39" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="88" t="s">
+      <c r="J39" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="88" t="s">
+      <c r="K39" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="88" t="s">
+      <c r="L39" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="116" t="s">
+      <c r="O39" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="P39" s="106" t="s">
+      <c r="P39" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="106" t="s">
+      <c r="Q39" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="R39" s="106" t="s">
+      <c r="R39" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="S39" s="106" t="s">
+      <c r="S39" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="T39" s="106" t="s">
+      <c r="T39" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="U39" s="106" t="s">
+      <c r="U39" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="V39" s="106" t="s">
+      <c r="V39" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="W39" s="106" t="s">
+      <c r="W39" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="X39" s="106" t="s">
+      <c r="X39" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="Y39" s="106" t="s">
+      <c r="Y39" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="Z39" s="106" t="s">
+      <c r="Z39" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="AA39" s="111" t="s">
+      <c r="AA39" s="114" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="122"/>
-      <c r="B40" s="123"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="106"/>
-      <c r="S40" s="106"/>
-      <c r="T40" s="106"/>
-      <c r="U40" s="106"/>
-      <c r="V40" s="106"/>
-      <c r="W40" s="106"/>
-      <c r="X40" s="106"/>
-      <c r="Y40" s="106"/>
-      <c r="Z40" s="106"/>
-      <c r="AA40" s="111"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="96"/>
+      <c r="O40" s="119"/>
+      <c r="P40" s="98"/>
+      <c r="Q40" s="98"/>
+      <c r="R40" s="98"/>
+      <c r="S40" s="98"/>
+      <c r="T40" s="98"/>
+      <c r="U40" s="98"/>
+      <c r="V40" s="98"/>
+      <c r="W40" s="98"/>
+      <c r="X40" s="98"/>
+      <c r="Y40" s="98"/>
+      <c r="Z40" s="98"/>
+      <c r="AA40" s="114"/>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="27" t="s">
@@ -3118,22 +3106,22 @@
       <c r="AA44" s="78"/>
     </row>
     <row r="45" spans="1:27" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="96" t="s">
+      <c r="B45" s="124"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="122"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="5" t="s">
@@ -3141,50 +3129,50 @@
       </c>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="130" t="s">
+      <c r="A49" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="131"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="65"/>
       <c r="D49" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="132" t="s">
+      <c r="A50" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="133"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="66"/>
       <c r="D50" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="132" t="s">
+      <c r="A51" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="133"/>
+      <c r="B51" s="104"/>
       <c r="C51" s="66"/>
       <c r="D51" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="130" t="s">
+      <c r="A52" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="131"/>
+      <c r="B52" s="102"/>
       <c r="C52" s="65"/>
       <c r="D52" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="132" t="s">
+      <c r="A53" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="133"/>
+      <c r="B53" s="104"/>
       <c r="C53" s="66"/>
       <c r="D53" s="4" t="s">
         <v>53</v>
@@ -3194,10 +3182,10 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A54" s="130" t="s">
+      <c r="A54" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="131"/>
+      <c r="B54" s="102"/>
       <c r="C54" s="65"/>
       <c r="D54" s="4" t="s">
         <v>55</v>
@@ -3210,10 +3198,10 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="28.5" customHeight="1">
-      <c r="A55" s="130" t="s">
+      <c r="A55" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="131"/>
+      <c r="B55" s="102"/>
       <c r="C55" s="65"/>
       <c r="D55" s="4" t="s">
         <v>55</v>
@@ -3226,60 +3214,60 @@
       </c>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="91" t="s">
+      <c r="A56" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="92"/>
+      <c r="B56" s="126"/>
       <c r="C56" s="80"/>
       <c r="D56" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="93" t="s">
+      <c r="A57" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="93"/>
+      <c r="B57" s="127"/>
       <c r="C57" s="80"/>
       <c r="D57" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="94" t="s">
+      <c r="A58" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="95"/>
+      <c r="B58" s="129"/>
       <c r="C58" s="81"/>
       <c r="D58" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="94" t="s">
+      <c r="A59" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="95"/>
+      <c r="B59" s="129"/>
       <c r="C59" s="81"/>
       <c r="D59" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="124" t="s">
+      <c r="A60" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="124"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="81"/>
       <c r="D60" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="125" t="s">
+      <c r="A61" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="125"/>
+      <c r="B61" s="105"/>
       <c r="C61" s="82"/>
       <c r="D61" s="4" t="s">
         <v>105</v>
@@ -3289,10 +3277,10 @@
       </c>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="126" t="s">
+      <c r="A62" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="127"/>
+      <c r="B62" s="113"/>
       <c r="C62" s="82"/>
       <c r="D62" s="4" t="s">
         <v>55</v>
@@ -3302,10 +3290,10 @@
       </c>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="126" t="s">
+      <c r="A63" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="127"/>
+      <c r="B63" s="113"/>
       <c r="C63" s="82"/>
       <c r="D63" s="4" t="s">
         <v>55</v>
@@ -3315,40 +3303,40 @@
       </c>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="126" t="s">
+      <c r="A64" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="127"/>
+      <c r="B64" s="113"/>
       <c r="C64" s="82"/>
       <c r="D64" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="126" t="s">
+      <c r="A65" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="127"/>
+      <c r="B65" s="113"/>
       <c r="C65" s="82"/>
       <c r="D65" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="125" t="s">
+      <c r="A66" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="125"/>
+      <c r="B66" s="105"/>
       <c r="C66" s="82"/>
       <c r="D66" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="125" t="s">
+      <c r="A67" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="125"/>
+      <c r="B67" s="105"/>
       <c r="C67" s="82"/>
       <c r="D67" s="4" t="str">
         <f>D61</f>
@@ -3356,20 +3344,20 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="125" t="s">
+      <c r="A68" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="125"/>
+      <c r="B68" s="105"/>
       <c r="C68" s="82"/>
       <c r="D68" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="125" t="s">
+      <c r="A69" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="125"/>
+      <c r="B69" s="105"/>
       <c r="C69" s="82"/>
       <c r="D69" s="4" t="s">
         <v>55</v>
@@ -3379,10 +3367,10 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="125" t="s">
+      <c r="A70" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="125"/>
+      <c r="B70" s="105"/>
       <c r="C70" s="82"/>
       <c r="D70" s="4" t="s">
         <v>55</v>
@@ -3392,10 +3380,10 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="125" t="s">
+      <c r="A71" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="125"/>
+      <c r="B71" s="105"/>
       <c r="C71" s="82"/>
       <c r="D71" s="4" t="s">
         <v>55</v>
@@ -3405,10 +3393,10 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="125" t="s">
+      <c r="A72" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="125"/>
+      <c r="B72" s="105"/>
       <c r="C72" s="82"/>
       <c r="D72" s="4" t="s">
         <v>55</v>
@@ -3418,10 +3406,10 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="125" t="s">
+      <c r="A73" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="125"/>
+      <c r="B73" s="105"/>
       <c r="C73" s="82"/>
       <c r="D73" s="4" t="s">
         <v>55</v>
@@ -3431,10 +3419,10 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="125" t="s">
+      <c r="A74" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="125"/>
+      <c r="B74" s="105"/>
       <c r="C74" s="82"/>
       <c r="D74" s="4" t="s">
         <v>55</v>
@@ -3444,10 +3432,10 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="125" t="s">
+      <c r="A75" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="125"/>
+      <c r="B75" s="105"/>
       <c r="C75" s="82"/>
       <c r="D75" s="4" t="s">
         <v>55</v>
@@ -3457,10 +3445,10 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="125" t="s">
+      <c r="A76" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="125"/>
+      <c r="B76" s="105"/>
       <c r="C76" s="82"/>
       <c r="D76" s="4" t="s">
         <v>55</v>
@@ -3470,10 +3458,10 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="125" t="s">
+      <c r="A77" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="125"/>
+      <c r="B77" s="105"/>
       <c r="C77" s="82"/>
       <c r="D77" s="4" t="s">
         <v>55</v>
@@ -3483,10 +3471,10 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="125" t="s">
+      <c r="A78" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="125"/>
+      <c r="B78" s="105"/>
       <c r="C78" s="82"/>
       <c r="D78" s="4" t="s">
         <v>55</v>
@@ -3508,38 +3496,38 @@
       <c r="H81" s="22"/>
     </row>
     <row r="82" spans="1:33" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
-      <c r="G82" s="109"/>
-      <c r="H82" s="109"/>
-      <c r="I82" s="109"/>
-      <c r="J82" s="109"/>
-      <c r="K82" s="109"/>
-      <c r="L82" s="110"/>
-      <c r="O82" s="134" t="s">
+      <c r="B82" s="107"/>
+      <c r="C82" s="107"/>
+      <c r="D82" s="107"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="107"/>
+      <c r="G82" s="107"/>
+      <c r="H82" s="107"/>
+      <c r="I82" s="107"/>
+      <c r="J82" s="107"/>
+      <c r="K82" s="107"/>
+      <c r="L82" s="108"/>
+      <c r="O82" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="P82" s="135"/>
-      <c r="Q82" s="135"/>
-      <c r="R82" s="135"/>
-      <c r="S82" s="135"/>
-      <c r="T82" s="135"/>
-      <c r="U82" s="135"/>
-      <c r="V82" s="135"/>
-      <c r="W82" s="135"/>
-      <c r="X82" s="135"/>
-      <c r="Y82" s="135"/>
-      <c r="Z82" s="135"/>
-      <c r="AA82" s="135"/>
-      <c r="AB82" s="135"/>
-      <c r="AC82" s="135"/>
-      <c r="AD82" s="136"/>
+      <c r="P82" s="87"/>
+      <c r="Q82" s="87"/>
+      <c r="R82" s="87"/>
+      <c r="S82" s="87"/>
+      <c r="T82" s="87"/>
+      <c r="U82" s="87"/>
+      <c r="V82" s="87"/>
+      <c r="W82" s="87"/>
+      <c r="X82" s="87"/>
+      <c r="Y82" s="87"/>
+      <c r="Z82" s="87"/>
+      <c r="AA82" s="87"/>
+      <c r="AB82" s="87"/>
+      <c r="AC82" s="87"/>
+      <c r="AD82" s="88"/>
       <c r="AE82" s="79"/>
     </row>
     <row r="83" spans="1:33" ht="15" thickTop="1">
@@ -3616,17 +3604,17 @@
       <c r="AD85" s="52"/>
     </row>
     <row r="86" spans="1:33">
-      <c r="A86" s="118" t="s">
+      <c r="A86" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="118"/>
-      <c r="C86" s="118"/>
-      <c r="D86" s="118"/>
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="118"/>
-      <c r="H86" s="118"/>
-      <c r="I86" s="118"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="89"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="89"/>
+      <c r="G86" s="89"/>
+      <c r="H86" s="89"/>
+      <c r="I86" s="89"/>
       <c r="O86" s="51"/>
       <c r="P86" s="38"/>
       <c r="Q86" s="38"/>
@@ -3666,9 +3654,9 @@
       <c r="G87" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K87" s="119"/>
-      <c r="L87" s="120"/>
-      <c r="M87" s="120"/>
+      <c r="K87" s="90"/>
+      <c r="L87" s="91"/>
+      <c r="M87" s="91"/>
       <c r="O87" s="51"/>
       <c r="P87" s="38"/>
       <c r="Q87" s="38"/>
@@ -3782,31 +3770,31 @@
       <c r="AD90" s="52"/>
     </row>
     <row r="91" spans="1:33" ht="45" customHeight="1">
-      <c r="A91" s="121" t="s">
+      <c r="A91" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="123" t="s">
+      <c r="B91" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="99" t="s">
+      <c r="C91" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="D91" s="105" t="s">
+      <c r="D91" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="88" t="s">
+      <c r="E91" s="95" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G91" s="88" t="s">
+      <c r="G91" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="H91" s="128" t="s">
+      <c r="H91" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="I91" s="88" t="s">
+      <c r="I91" s="95" t="s">
         <v>22</v>
       </c>
       <c r="J91" s="24" t="s">
@@ -3821,85 +3809,85 @@
       <c r="M91" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O91" s="105" t="s">
+      <c r="O91" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="P91" s="106" t="s">
+      <c r="P91" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="Q91" s="106" t="s">
+      <c r="Q91" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="R91" s="106" t="s">
+      <c r="R91" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="S91" s="106" t="s">
+      <c r="S91" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="T91" s="106" t="s">
+      <c r="T91" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="U91" s="106" t="s">
+      <c r="U91" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="V91" s="106" t="s">
+      <c r="V91" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="W91" s="106" t="s">
+      <c r="W91" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="X91" s="106" t="s">
+      <c r="X91" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="Y91" s="106" t="s">
+      <c r="Y91" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="Z91" s="106" t="s">
+      <c r="Z91" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="AA91" s="106" t="s">
+      <c r="AA91" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="AB91" s="106" t="s">
+      <c r="AB91" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AC91" s="106" t="s">
+      <c r="AC91" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="AD91" s="107" t="s">
+      <c r="AD91" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:33">
-      <c r="A92" s="122"/>
-      <c r="B92" s="123"/>
-      <c r="C92" s="100"/>
-      <c r="D92" s="105"/>
-      <c r="E92" s="89"/>
+      <c r="A92" s="93"/>
+      <c r="B92" s="94"/>
+      <c r="C92" s="133"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="96"/>
       <c r="F92" s="26"/>
-      <c r="G92" s="89"/>
-      <c r="H92" s="129"/>
-      <c r="I92" s="89"/>
+      <c r="G92" s="96"/>
+      <c r="H92" s="110"/>
+      <c r="I92" s="96"/>
       <c r="J92" s="26"/>
       <c r="K92" s="26"/>
       <c r="L92" s="26"/>
       <c r="M92" s="26"/>
-      <c r="O92" s="105"/>
-      <c r="P92" s="106"/>
-      <c r="Q92" s="106"/>
-      <c r="R92" s="106"/>
-      <c r="S92" s="106"/>
-      <c r="T92" s="106"/>
-      <c r="U92" s="106"/>
-      <c r="V92" s="106"/>
-      <c r="W92" s="106"/>
-      <c r="X92" s="106"/>
-      <c r="Y92" s="106"/>
-      <c r="Z92" s="106"/>
-      <c r="AA92" s="106"/>
-      <c r="AB92" s="106"/>
-      <c r="AC92" s="106"/>
-      <c r="AD92" s="107"/>
+      <c r="O92" s="97"/>
+      <c r="P92" s="98"/>
+      <c r="Q92" s="98"/>
+      <c r="R92" s="98"/>
+      <c r="S92" s="98"/>
+      <c r="T92" s="98"/>
+      <c r="U92" s="98"/>
+      <c r="V92" s="98"/>
+      <c r="W92" s="98"/>
+      <c r="X92" s="98"/>
+      <c r="Y92" s="98"/>
+      <c r="Z92" s="98"/>
+      <c r="AA92" s="98"/>
+      <c r="AB92" s="98"/>
+      <c r="AC92" s="98"/>
+      <c r="AD92" s="99"/>
     </row>
     <row r="93" spans="1:33" ht="15">
       <c r="A93" s="1" t="s">
@@ -4278,23 +4266,23 @@
       </c>
     </row>
     <row r="97" spans="1:31" ht="63" customHeight="1" thickTop="1">
-      <c r="A97" s="97" t="s">
+      <c r="A97" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="98"/>
-      <c r="C97" s="98"/>
-      <c r="D97" s="98"/>
-      <c r="E97" s="98"/>
-      <c r="F97" s="98"/>
-      <c r="G97" s="98"/>
-      <c r="H97" s="98"/>
-      <c r="I97" s="98"/>
-      <c r="J97" s="96" t="s">
+      <c r="B97" s="131"/>
+      <c r="C97" s="131"/>
+      <c r="D97" s="131"/>
+      <c r="E97" s="131"/>
+      <c r="F97" s="131"/>
+      <c r="G97" s="131"/>
+      <c r="H97" s="131"/>
+      <c r="I97" s="131"/>
+      <c r="J97" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="K97" s="96"/>
-      <c r="L97" s="96"/>
-      <c r="M97" s="96"/>
+      <c r="K97" s="122"/>
+      <c r="L97" s="122"/>
+      <c r="M97" s="122"/>
     </row>
     <row r="98" spans="1:31" s="64" customFormat="1">
       <c r="A98" s="72"/>
@@ -4316,60 +4304,60 @@
       </c>
     </row>
     <row r="101" spans="1:31">
-      <c r="A101" s="106" t="s">
+      <c r="A101" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="B101" s="106"/>
+      <c r="B101" s="98"/>
       <c r="C101" s="83"/>
       <c r="D101" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:31">
-      <c r="A102" s="106" t="s">
+      <c r="A102" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B102" s="106"/>
+      <c r="B102" s="98"/>
       <c r="C102" s="83"/>
       <c r="D102" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:31">
-      <c r="A103" s="106" t="s">
+      <c r="A103" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="106"/>
+      <c r="B103" s="98"/>
       <c r="C103" s="83"/>
       <c r="D103" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:31">
-      <c r="A104" s="106" t="s">
+      <c r="A104" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="B104" s="106"/>
+      <c r="B104" s="98"/>
       <c r="C104" s="83"/>
       <c r="D104" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:31">
-      <c r="A105" s="106" t="s">
+      <c r="A105" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="B105" s="106"/>
+      <c r="B105" s="98"/>
       <c r="C105" s="83"/>
       <c r="D105" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:31">
-      <c r="A106" s="107" t="s">
+      <c r="A106" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="B106" s="107"/>
+      <c r="B106" s="99"/>
       <c r="C106" s="83"/>
       <c r="D106" s="4" t="s">
         <v>81</v>
@@ -4388,39 +4376,39 @@
       <c r="H110" s="22"/>
     </row>
     <row r="111" spans="1:31" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A111" s="108" t="s">
+      <c r="A111" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B111" s="109"/>
-      <c r="C111" s="109"/>
-      <c r="D111" s="109"/>
-      <c r="E111" s="109"/>
-      <c r="F111" s="109"/>
-      <c r="G111" s="109"/>
-      <c r="H111" s="109"/>
-      <c r="I111" s="109"/>
-      <c r="J111" s="109"/>
-      <c r="K111" s="109"/>
-      <c r="L111" s="110"/>
-      <c r="O111" s="134" t="s">
+      <c r="B111" s="107"/>
+      <c r="C111" s="107"/>
+      <c r="D111" s="107"/>
+      <c r="E111" s="107"/>
+      <c r="F111" s="107"/>
+      <c r="G111" s="107"/>
+      <c r="H111" s="107"/>
+      <c r="I111" s="107"/>
+      <c r="J111" s="107"/>
+      <c r="K111" s="107"/>
+      <c r="L111" s="108"/>
+      <c r="O111" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="P111" s="135"/>
-      <c r="Q111" s="135"/>
-      <c r="R111" s="135"/>
-      <c r="S111" s="135"/>
-      <c r="T111" s="135"/>
-      <c r="U111" s="135"/>
-      <c r="V111" s="135"/>
-      <c r="W111" s="135"/>
-      <c r="X111" s="135"/>
-      <c r="Y111" s="135"/>
-      <c r="Z111" s="135"/>
-      <c r="AA111" s="135"/>
-      <c r="AB111" s="135"/>
-      <c r="AC111" s="135"/>
-      <c r="AD111" s="135"/>
-      <c r="AE111" s="136"/>
+      <c r="P111" s="87"/>
+      <c r="Q111" s="87"/>
+      <c r="R111" s="87"/>
+      <c r="S111" s="87"/>
+      <c r="T111" s="87"/>
+      <c r="U111" s="87"/>
+      <c r="V111" s="87"/>
+      <c r="W111" s="87"/>
+      <c r="X111" s="87"/>
+      <c r="Y111" s="87"/>
+      <c r="Z111" s="87"/>
+      <c r="AA111" s="87"/>
+      <c r="AB111" s="87"/>
+      <c r="AC111" s="87"/>
+      <c r="AD111" s="87"/>
+      <c r="AE111" s="88"/>
     </row>
     <row r="112" spans="1:31" ht="15" thickTop="1">
       <c r="A112" s="5" t="s">
@@ -4499,17 +4487,17 @@
       <c r="AE114" s="52"/>
     </row>
     <row r="115" spans="1:34">
-      <c r="A115" s="118" t="s">
+      <c r="A115" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B115" s="118"/>
-      <c r="C115" s="118"/>
-      <c r="D115" s="118"/>
-      <c r="E115" s="118"/>
-      <c r="F115" s="118"/>
-      <c r="G115" s="118"/>
-      <c r="H115" s="118"/>
-      <c r="I115" s="118"/>
+      <c r="B115" s="89"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="89"/>
+      <c r="E115" s="89"/>
+      <c r="F115" s="89"/>
+      <c r="G115" s="89"/>
+      <c r="H115" s="89"/>
+      <c r="I115" s="89"/>
       <c r="O115" s="51"/>
       <c r="P115" s="38"/>
       <c r="Q115" s="38"/>
@@ -4552,9 +4540,9 @@
       <c r="I116" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K116" s="119"/>
-      <c r="L116" s="120"/>
-      <c r="M116" s="120"/>
+      <c r="K116" s="90"/>
+      <c r="L116" s="91"/>
+      <c r="M116" s="91"/>
       <c r="O116" s="51"/>
       <c r="P116" s="38"/>
       <c r="Q116" s="38"/>
@@ -4674,28 +4662,28 @@
       <c r="AE119" s="52"/>
     </row>
     <row r="120" spans="1:34" ht="45" customHeight="1">
-      <c r="A120" s="121" t="s">
+      <c r="A120" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="123" t="s">
+      <c r="B120" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C120" s="99" t="s">
+      <c r="C120" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="103" t="s">
+      <c r="D120" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="88" t="s">
+      <c r="E120" s="95" t="s">
         <v>122</v>
       </c>
       <c r="F120" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G120" s="88" t="s">
+      <c r="G120" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="H120" s="101" t="s">
+      <c r="H120" s="134" t="s">
         <v>27</v>
       </c>
       <c r="I120" s="25" t="s">
@@ -4713,89 +4701,89 @@
       <c r="M120" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O120" s="105" t="s">
+      <c r="O120" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="P120" s="106" t="s">
+      <c r="P120" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="Q120" s="106" t="s">
+      <c r="Q120" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="R120" s="106" t="s">
+      <c r="R120" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="S120" s="106" t="s">
+      <c r="S120" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="T120" s="106" t="s">
+      <c r="T120" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="U120" s="106" t="s">
+      <c r="U120" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="V120" s="106" t="s">
+      <c r="V120" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="W120" s="106" t="s">
+      <c r="W120" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="X120" s="106" t="s">
+      <c r="X120" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="Y120" s="106" t="s">
+      <c r="Y120" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="Z120" s="106" t="s">
+      <c r="Z120" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="AA120" s="106" t="s">
+      <c r="AA120" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="AB120" s="106" t="s">
+      <c r="AB120" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AC120" s="137" t="s">
+      <c r="AC120" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="AD120" s="106" t="s">
+      <c r="AD120" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="AE120" s="107" t="s">
+      <c r="AE120" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:34">
-      <c r="A121" s="122"/>
-      <c r="B121" s="123"/>
-      <c r="C121" s="100"/>
-      <c r="D121" s="104"/>
-      <c r="E121" s="89"/>
+      <c r="A121" s="93"/>
+      <c r="B121" s="94"/>
+      <c r="C121" s="133"/>
+      <c r="D121" s="137"/>
+      <c r="E121" s="96"/>
       <c r="F121" s="26"/>
-      <c r="G121" s="89"/>
-      <c r="H121" s="102"/>
+      <c r="G121" s="96"/>
+      <c r="H121" s="135"/>
       <c r="I121" s="25"/>
       <c r="J121" s="26"/>
       <c r="K121" s="26"/>
       <c r="L121" s="26"/>
       <c r="M121" s="26"/>
-      <c r="O121" s="105"/>
-      <c r="P121" s="106"/>
-      <c r="Q121" s="106"/>
-      <c r="R121" s="106"/>
-      <c r="S121" s="106"/>
-      <c r="T121" s="106"/>
-      <c r="U121" s="106"/>
-      <c r="V121" s="106"/>
-      <c r="W121" s="106"/>
-      <c r="X121" s="106"/>
-      <c r="Y121" s="106"/>
-      <c r="Z121" s="106"/>
-      <c r="AA121" s="106"/>
-      <c r="AB121" s="106"/>
-      <c r="AC121" s="137"/>
-      <c r="AD121" s="106"/>
-      <c r="AE121" s="107"/>
+      <c r="O121" s="97"/>
+      <c r="P121" s="98"/>
+      <c r="Q121" s="98"/>
+      <c r="R121" s="98"/>
+      <c r="S121" s="98"/>
+      <c r="T121" s="98"/>
+      <c r="U121" s="98"/>
+      <c r="V121" s="98"/>
+      <c r="W121" s="98"/>
+      <c r="X121" s="98"/>
+      <c r="Y121" s="98"/>
+      <c r="Z121" s="98"/>
+      <c r="AA121" s="98"/>
+      <c r="AB121" s="98"/>
+      <c r="AC121" s="100"/>
+      <c r="AD121" s="98"/>
+      <c r="AE121" s="99"/>
     </row>
     <row r="122" spans="1:34" ht="15">
       <c r="A122" s="1" t="s">
@@ -5186,23 +5174,23 @@
       </c>
     </row>
     <row r="126" spans="1:34" ht="72" customHeight="1" thickTop="1">
-      <c r="A126" s="97" t="s">
+      <c r="A126" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="B126" s="98"/>
-      <c r="C126" s="98"/>
-      <c r="D126" s="98"/>
-      <c r="E126" s="98"/>
-      <c r="F126" s="98"/>
-      <c r="G126" s="98"/>
-      <c r="H126" s="98"/>
-      <c r="I126" s="98"/>
-      <c r="J126" s="96" t="s">
+      <c r="B126" s="131"/>
+      <c r="C126" s="131"/>
+      <c r="D126" s="131"/>
+      <c r="E126" s="131"/>
+      <c r="F126" s="131"/>
+      <c r="G126" s="131"/>
+      <c r="H126" s="131"/>
+      <c r="I126" s="131"/>
+      <c r="J126" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="K126" s="96"/>
-      <c r="L126" s="96"/>
-      <c r="M126" s="96"/>
+      <c r="K126" s="122"/>
+      <c r="L126" s="122"/>
+      <c r="M126" s="122"/>
       <c r="AC126" s="67" t="s">
         <v>124</v>
       </c>
@@ -5234,29 +5222,88 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="O111:AE111"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="O120:O121"/>
-    <mergeCell ref="Y120:Y121"/>
-    <mergeCell ref="P120:P121"/>
-    <mergeCell ref="Q120:Q121"/>
-    <mergeCell ref="R120:R121"/>
-    <mergeCell ref="S120:S121"/>
-    <mergeCell ref="T120:T121"/>
-    <mergeCell ref="U120:U121"/>
-    <mergeCell ref="AB120:AB121"/>
-    <mergeCell ref="AD120:AD121"/>
-    <mergeCell ref="AE120:AE121"/>
-    <mergeCell ref="AC120:AC121"/>
-    <mergeCell ref="V120:V121"/>
-    <mergeCell ref="W120:W121"/>
-    <mergeCell ref="X120:X121"/>
-    <mergeCell ref="Z120:Z121"/>
-    <mergeCell ref="AA120:AA121"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="J126:M126"/>
+    <mergeCell ref="A126:I126"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="AA39:AA40"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="O30:AA30"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="A10:J11"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="Z91:Z92"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A82:L82"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
     <mergeCell ref="AD91:AD92"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
@@ -5281,88 +5328,29 @@
     <mergeCell ref="P91:P92"/>
     <mergeCell ref="Q91:Q92"/>
     <mergeCell ref="Y91:Y92"/>
-    <mergeCell ref="Z91:Z92"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A82:L82"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="AA39:AA40"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="O30:AA30"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="A10:J11"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="J126:M126"/>
-    <mergeCell ref="A126:I126"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="A97:I97"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="O111:AE111"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="O120:O121"/>
+    <mergeCell ref="Y120:Y121"/>
+    <mergeCell ref="P120:P121"/>
+    <mergeCell ref="Q120:Q121"/>
+    <mergeCell ref="R120:R121"/>
+    <mergeCell ref="S120:S121"/>
+    <mergeCell ref="T120:T121"/>
+    <mergeCell ref="U120:U121"/>
+    <mergeCell ref="AB120:AB121"/>
+    <mergeCell ref="AD120:AD121"/>
+    <mergeCell ref="AE120:AE121"/>
+    <mergeCell ref="AC120:AC121"/>
+    <mergeCell ref="V120:V121"/>
+    <mergeCell ref="W120:W121"/>
+    <mergeCell ref="X120:X121"/>
+    <mergeCell ref="Z120:Z121"/>
+    <mergeCell ref="AA120:AA121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5371,80 +5359,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="1" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:11" s="139" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="139" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="A2" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="138">
         <v>42229</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="138">
         <v>2399</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="138">
         <v>2415</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="138">
         <v>2385</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="138">
         <v>42234</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="138">
         <v>2392</v>
       </c>
       <c r="J2">
@@ -5452,401 +5432,401 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="A3" s="138" t="s">
         <v>148</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="138">
         <v>42195</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="138">
         <v>1896</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="138">
         <v>1914</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="138">
         <v>1885</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="138">
         <v>42231</v>
       </c>
-      <c r="I3">
-        <v>2</v>
+      <c r="I3" s="138">
+        <v>1893</v>
       </c>
       <c r="J3">
         <v>1893</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="A4" s="138" t="s">
         <v>149</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="138">
         <v>42235</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="138">
         <v>830</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="138">
         <v>837</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="138">
         <v>826</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="138">
         <v>42242</v>
       </c>
-      <c r="I4">
-        <v>56</v>
+      <c r="I4" s="138">
+        <v>837</v>
       </c>
       <c r="J4">
         <v>837</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="A5" s="138" t="s">
         <v>150</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="138">
         <v>42197</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="138">
         <v>293.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="138">
         <v>297</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="138">
         <v>292</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="138">
         <v>42216</v>
       </c>
-      <c r="I5">
-        <v>458</v>
+      <c r="I5" s="138">
+        <v>294.2</v>
       </c>
       <c r="J5">
         <v>294.2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="A6" s="138" t="s">
         <v>151</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="138">
         <v>42373</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="138">
         <v>140.9</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="138">
         <v>140.9</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="138">
         <f>E6*95%</f>
         <v>133.85499999999999</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="138">
         <v>42373</v>
       </c>
-      <c r="I6">
-        <v>44</v>
+      <c r="I6" s="138">
+        <v>140.9</v>
       </c>
       <c r="J6">
         <v>140.9</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" t="s">
+      <c r="A7" s="138" t="s">
         <v>152</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="138">
         <v>42373</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="138">
         <v>142.4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="138">
         <v>143.69999999999999</v>
       </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G32" si="0">E7*95%</f>
+      <c r="G7" s="138">
+        <f t="shared" ref="G7:G30" si="0">E7*95%</f>
         <v>135.28</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="138">
         <v>42373</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="138">
         <v>143.69999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="A8" s="138" t="s">
         <v>153</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="138">
         <v>42374</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="138">
         <v>261.8</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="138">
         <v>264.12</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="138">
         <f t="shared" si="0"/>
         <v>248.71</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="138">
         <v>42374</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="138">
         <v>264.12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" t="s">
+      <c r="A9" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="138">
         <v>42375</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="138">
         <v>327</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="138">
         <v>331</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="138">
         <f t="shared" si="0"/>
         <v>310.64999999999998</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="138">
         <v>42375</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="138">
         <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" t="s">
+      <c r="A10" s="138" t="s">
         <v>155</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="138">
         <v>42376</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="138">
         <v>323.3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="138">
         <v>325</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="138">
         <f t="shared" si="0"/>
         <v>307.13499999999999</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="138">
         <v>42376</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="138">
         <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" t="s">
+      <c r="A11" s="138" t="s">
         <v>156</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="138">
         <v>42377</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="138">
         <v>351.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="138">
         <v>355.5</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="138">
         <f t="shared" si="0"/>
         <v>333.92500000000001</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="138">
         <v>42377</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="138">
         <v>355.5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" t="s">
+      <c r="A12" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="138">
         <v>42380</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="138">
         <v>204.8</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="138">
         <v>206.8</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="138">
         <f t="shared" si="0"/>
         <v>194.56</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="138">
         <v>42380</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="138">
         <v>206.8</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" t="s">
+      <c r="A13" s="138" t="s">
         <v>158</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="138">
         <v>42380</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="138">
         <v>315.60000000000002</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="138">
         <v>316</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="138">
         <f t="shared" si="0"/>
         <v>299.82</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="138">
         <v>42380</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="138">
         <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" t="s">
+      <c r="A14" s="138" t="s">
         <v>159</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="138">
         <v>42381</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="138">
         <v>1349</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="138">
         <v>1360</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="138">
         <f t="shared" si="0"/>
         <v>1281.55</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="138">
         <v>42381</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="138">
         <v>1360</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" t="s">
+      <c r="A15" s="138" t="s">
         <v>160</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="138" t="s">
         <v>133</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="138">
         <v>42381</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="138">
         <v>139.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="138">
         <v>136.30000000000001</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="138">
         <f t="shared" si="0"/>
         <v>132.52500000000001</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="138">
         <v>42381</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="138">
         <v>136.30000000000001</v>
       </c>
       <c r="K15" t="s">
@@ -5854,601 +5834,452 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" t="s">
+      <c r="A16" s="138" t="s">
         <v>161</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="138">
         <v>42382</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="138">
         <v>897</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="138">
         <v>902</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="138">
         <f t="shared" si="0"/>
         <v>852.15</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="138">
         <v>42382</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="138">
         <v>902</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="A17" s="138" t="s">
         <v>162</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="138">
         <v>42382</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="138">
         <v>260</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="138">
         <v>247.3</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="138">
         <f t="shared" si="0"/>
         <v>247</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="138">
         <v>42382</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="138">
         <v>247.3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="A18" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="138">
         <v>42383</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="138">
         <v>543.29999999999995</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="138">
         <v>537.1</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="138">
         <f t="shared" si="0"/>
         <v>516.13499999999988</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="138">
         <v>42383</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="138">
         <v>537.1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="A19" s="138" t="s">
         <v>164</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="138" t="s">
         <v>136</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="138">
         <v>42384</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="138">
         <v>121.3</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="138">
         <v>118.5</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="138">
         <f t="shared" si="0"/>
         <v>115.23499999999999</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="138">
         <v>42384</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="138">
         <v>118.5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" t="s">
+      <c r="A20" s="138" t="s">
         <v>165</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="138">
         <v>42384</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="138">
         <v>921.75</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="138">
         <v>930</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="138">
         <f t="shared" si="0"/>
         <v>875.66249999999991</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="138">
         <v>42384</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="138">
         <v>930</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="A21" s="138" t="s">
         <v>166</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="138" t="s">
         <v>137</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="138">
         <v>42387</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="138">
         <v>317.39999999999998</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="138">
         <v>314.39999999999998</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="138">
         <f t="shared" si="0"/>
         <v>301.52999999999997</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="138">
         <v>42387</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="138">
         <v>314.39999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="A22" s="138" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="138">
         <v>42387</v>
       </c>
-      <c r="E22">
-        <v>317.39999999999998</v>
-      </c>
-      <c r="F22">
-        <v>314.39999999999998</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ref="G22" si="1">E22*95%</f>
-        <v>301.52999999999997</v>
-      </c>
-      <c r="H22">
-        <v>42387</v>
-      </c>
-      <c r="I22">
-        <v>314.39999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23">
-        <v>42387</v>
-      </c>
-      <c r="E23">
+      <c r="E22" s="138">
         <v>223</v>
       </c>
-      <c r="F23">
+      <c r="F22" s="138">
         <v>224.1</v>
       </c>
-      <c r="G23">
+      <c r="G22" s="138">
         <f t="shared" si="0"/>
         <v>211.85</v>
       </c>
-      <c r="H23">
+      <c r="H22" s="138">
         <v>42387</v>
       </c>
-      <c r="I23">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
+      <c r="I22" s="138">
+        <v>224.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="138" t="s">
         <v>168</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B23" s="138" t="s">
         <v>139</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C23" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D24">
+      <c r="D23" s="138">
         <v>42388</v>
       </c>
-      <c r="E24">
+      <c r="E23" s="138">
         <v>381.2</v>
       </c>
-      <c r="F24">
+      <c r="F23" s="138">
         <v>388</v>
       </c>
-      <c r="G24">
+      <c r="G23" s="138">
         <f t="shared" si="0"/>
         <v>362.14</v>
       </c>
-      <c r="H24">
+      <c r="H23" s="138">
         <v>42388</v>
       </c>
-      <c r="I24">
+      <c r="I23" s="138">
         <v>388</v>
       </c>
     </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="138" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="138">
+        <v>42389</v>
+      </c>
+      <c r="E24" s="138">
+        <v>381.1</v>
+      </c>
+      <c r="F24" s="138">
+        <v>376.5</v>
+      </c>
+      <c r="G24" s="138">
+        <f>E24*105%</f>
+        <v>400.15500000000003</v>
+      </c>
+      <c r="H24" s="138">
+        <v>42389</v>
+      </c>
+      <c r="I24" s="138">
+        <v>385.70000000000005</v>
+      </c>
+    </row>
     <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25">
+      <c r="A25" s="138" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="138" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="138">
         <v>42389</v>
       </c>
-      <c r="E25">
-        <v>381.1</v>
-      </c>
-      <c r="F25">
-        <v>376.5</v>
-      </c>
-      <c r="G25">
-        <f>E25*105%</f>
-        <v>400.15500000000003</v>
-      </c>
-      <c r="H25">
-        <v>42389</v>
-      </c>
-      <c r="I25">
-        <v>385.70000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26">
-        <v>42389</v>
-      </c>
-      <c r="E26">
+      <c r="E25" s="138">
         <v>848.5</v>
       </c>
-      <c r="F26">
-        <v>3434</v>
-      </c>
-      <c r="G26">
+      <c r="F25" s="138">
+        <v>834.1</v>
+      </c>
+      <c r="G25" s="138">
         <f t="shared" si="0"/>
         <v>806.07499999999993</v>
       </c>
-      <c r="H26">
+      <c r="H25" s="138">
         <v>42389</v>
       </c>
-      <c r="I26">
+      <c r="I25" s="138">
         <v>834.1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>340</v>
-      </c>
-      <c r="B27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="138" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="138" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D27">
-        <v>42389</v>
-      </c>
-      <c r="E27">
-        <v>848.5</v>
-      </c>
-      <c r="F27">
-        <v>3434</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ref="G27" si="2">E27*95%</f>
-        <v>806.07499999999993</v>
-      </c>
-      <c r="H27">
-        <v>42389</v>
-      </c>
-      <c r="I27">
-        <v>834.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28">
+      <c r="D26" s="138">
         <v>42390</v>
       </c>
-      <c r="E28">
+      <c r="E26" s="138">
         <v>392</v>
       </c>
-      <c r="F28">
+      <c r="F26" s="138">
         <v>386.5</v>
       </c>
-      <c r="G28">
+      <c r="G26" s="138">
         <f t="shared" si="0"/>
         <v>372.4</v>
       </c>
-      <c r="H28">
+      <c r="H26" s="138">
         <v>42390</v>
       </c>
-      <c r="I28">
+      <c r="I26" s="138">
         <v>386.5</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="138" t="s">
         <v>172</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B27" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C27" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D29">
+      <c r="D27" s="138">
         <v>42391</v>
       </c>
-      <c r="E29">
+      <c r="E27" s="138">
         <v>1003.2</v>
       </c>
-      <c r="F29">
+      <c r="F27" s="138">
         <v>1010.5</v>
       </c>
-      <c r="G29">
+      <c r="G27" s="138">
         <f t="shared" si="0"/>
         <v>953.04</v>
       </c>
-      <c r="H29">
+      <c r="H27" s="138">
         <v>42391</v>
       </c>
-      <c r="I29">
+      <c r="I27" s="138">
         <v>1010.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B28" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C28" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D30">
+      <c r="D28" s="138">
         <v>42396</v>
       </c>
-      <c r="E30">
+      <c r="E28" s="138">
         <v>821</v>
       </c>
-      <c r="F30">
+      <c r="F28" s="138">
         <v>813.5</v>
       </c>
-      <c r="G30">
+      <c r="G28" s="138">
         <f t="shared" si="0"/>
         <v>779.94999999999993</v>
       </c>
-      <c r="H30">
+      <c r="H28" s="138">
         <v>42396</v>
       </c>
-      <c r="I30">
+      <c r="I28" s="138">
         <v>813.5</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B29" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C29" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D31">
+      <c r="D29" s="138">
         <v>42397</v>
       </c>
-      <c r="E31">
+      <c r="E29" s="138">
         <v>1042.75</v>
       </c>
-      <c r="F31">
+      <c r="F29" s="138">
         <v>1046.5</v>
       </c>
-      <c r="G31">
+      <c r="G29" s="138">
         <f t="shared" si="0"/>
         <v>990.61249999999995</v>
       </c>
-      <c r="H31">
+      <c r="H29" s="138">
         <v>42397</v>
       </c>
-      <c r="I31">
+      <c r="I29" s="138">
         <v>1046.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="138" t="s">
         <v>175</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B30" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C30" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D32">
+      <c r="D30" s="138">
         <v>42398</v>
       </c>
-      <c r="E32">
+      <c r="E30" s="138">
         <v>1149.7</v>
       </c>
-      <c r="F32">
+      <c r="F30" s="138">
         <v>1155</v>
       </c>
-      <c r="G32">
+      <c r="G30" s="138">
         <f t="shared" si="0"/>
         <v>1092.2149999999999</v>
       </c>
-      <c r="H32">
+      <c r="H30" s="138">
         <v>42398</v>
       </c>
-      <c r="I32">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>335</v>
-      </c>
-      <c r="B33" t="s">
-        <v>336</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33">
-        <v>78945</v>
-      </c>
-      <c r="E33">
-        <v>51.155999999999999</v>
-      </c>
-      <c r="F33">
-        <v>55</v>
-      </c>
-      <c r="G33">
-        <v>45.584000000000003</v>
-      </c>
-      <c r="H33">
-        <v>65659</v>
-      </c>
-      <c r="I33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>337</v>
-      </c>
-      <c r="B34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34">
-        <v>42389</v>
-      </c>
-      <c r="E34">
-        <v>848.5</v>
-      </c>
-      <c r="F34">
-        <v>834.1</v>
-      </c>
-      <c r="G34">
-        <f t="shared" ref="G34:G35" si="3">E34*95%</f>
-        <v>806.07499999999993</v>
-      </c>
-      <c r="H34">
-        <v>42389</v>
-      </c>
-      <c r="I34">
-        <v>834.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>338</v>
-      </c>
-      <c r="B35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35">
-        <v>42398</v>
-      </c>
-      <c r="E35">
-        <v>1149.7</v>
-      </c>
-      <c r="F35">
-        <v>1155</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="3"/>
-        <v>1092.2149999999999</v>
-      </c>
-      <c r="H35">
-        <v>42398</v>
-      </c>
-      <c r="I35">
+      <c r="I30" s="138">
         <v>1155</v>
       </c>
     </row>

--- a/workbooks/Research Performance Tracker.xlsx
+++ b/workbooks/Research Performance Tracker.xlsx
@@ -1787,32 +1787,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1820,89 +1805,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1918,6 +1822,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1943,11 +1850,104 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2271,22 +2271,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
     </row>
     <row r="2" spans="1:14" s="84" customFormat="1">
       <c r="A2" s="84" t="s">
@@ -2336,30 +2336,30 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="120"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
@@ -2429,35 +2429,35 @@
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="108"/>
-      <c r="O30" s="116" t="s">
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="112"/>
+      <c r="O30" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="117"/>
-      <c r="S30" s="117"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="117"/>
-      <c r="V30" s="117"/>
-      <c r="W30" s="117"/>
-      <c r="X30" s="117"/>
-      <c r="Y30" s="117"/>
-      <c r="Z30" s="117"/>
-      <c r="AA30" s="118"/>
+      <c r="P30" s="116"/>
+      <c r="Q30" s="116"/>
+      <c r="R30" s="116"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="116"/>
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
+      <c r="X30" s="116"/>
+      <c r="Y30" s="116"/>
+      <c r="Z30" s="116"/>
+      <c r="AA30" s="117"/>
     </row>
     <row r="31" spans="1:27" ht="15" thickTop="1">
       <c r="A31" s="5" t="s">
@@ -2528,17 +2528,17 @@
       <c r="AA33" s="39"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
@@ -2575,9 +2575,9 @@
       <c r="G35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
@@ -2679,108 +2679,108 @@
       <c r="AA38" s="39"/>
     </row>
     <row r="39" spans="1:27" ht="45" customHeight="1">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="95" t="s">
+      <c r="D39" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="95" t="s">
+      <c r="E39" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="121" t="s">
+      <c r="F39" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="121" t="s">
+      <c r="G39" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="121" t="s">
+      <c r="H39" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="95" t="s">
+      <c r="I39" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="95" t="s">
+      <c r="J39" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="95" t="s">
+      <c r="K39" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="95" t="s">
+      <c r="L39" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="119" t="s">
+      <c r="O39" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="P39" s="98" t="s">
+      <c r="P39" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="98" t="s">
+      <c r="Q39" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="R39" s="98" t="s">
+      <c r="R39" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="S39" s="98" t="s">
+      <c r="S39" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="T39" s="98" t="s">
+      <c r="T39" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="U39" s="98" t="s">
+      <c r="U39" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="V39" s="98" t="s">
+      <c r="V39" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="W39" s="98" t="s">
+      <c r="W39" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="X39" s="98" t="s">
+      <c r="X39" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="Y39" s="98" t="s">
+      <c r="Y39" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="Z39" s="98" t="s">
+      <c r="Z39" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="AA39" s="114" t="s">
+      <c r="AA39" s="113" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="93"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="98"/>
-      <c r="Q40" s="98"/>
-      <c r="R40" s="98"/>
-      <c r="S40" s="98"/>
-      <c r="T40" s="98"/>
-      <c r="U40" s="98"/>
-      <c r="V40" s="98"/>
-      <c r="W40" s="98"/>
-      <c r="X40" s="98"/>
-      <c r="Y40" s="98"/>
-      <c r="Z40" s="98"/>
-      <c r="AA40" s="114"/>
+      <c r="A40" s="124"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="O40" s="118"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="108"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="108"/>
+      <c r="X40" s="108"/>
+      <c r="Y40" s="108"/>
+      <c r="Z40" s="108"/>
+      <c r="AA40" s="113"/>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="27" t="s">
@@ -3106,22 +3106,22 @@
       <c r="AA44" s="78"/>
     </row>
     <row r="45" spans="1:27" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A45" s="123" t="s">
+      <c r="A45" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="124"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="122" t="s">
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122"/>
-      <c r="L45" s="122"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="98"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="5" t="s">
@@ -3129,50 +3129,50 @@
       </c>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="102"/>
+      <c r="B49" s="133"/>
       <c r="C49" s="65"/>
       <c r="D49" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="103" t="s">
+      <c r="A50" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="104"/>
+      <c r="B50" s="135"/>
       <c r="C50" s="66"/>
       <c r="D50" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="103" t="s">
+      <c r="A51" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="104"/>
+      <c r="B51" s="135"/>
       <c r="C51" s="66"/>
       <c r="D51" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="101" t="s">
+      <c r="A52" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="102"/>
+      <c r="B52" s="133"/>
       <c r="C52" s="65"/>
       <c r="D52" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="103" t="s">
+      <c r="A53" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="104"/>
+      <c r="B53" s="135"/>
       <c r="C53" s="66"/>
       <c r="D53" s="4" t="s">
         <v>53</v>
@@ -3182,10 +3182,10 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A54" s="101" t="s">
+      <c r="A54" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="102"/>
+      <c r="B54" s="133"/>
       <c r="C54" s="65"/>
       <c r="D54" s="4" t="s">
         <v>55</v>
@@ -3198,10 +3198,10 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="28.5" customHeight="1">
-      <c r="A55" s="101" t="s">
+      <c r="A55" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="102"/>
+      <c r="B55" s="133"/>
       <c r="C55" s="65"/>
       <c r="D55" s="4" t="s">
         <v>55</v>
@@ -3214,60 +3214,60 @@
       </c>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="125" t="s">
+      <c r="A56" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="126"/>
+      <c r="B56" s="94"/>
       <c r="C56" s="80"/>
       <c r="D56" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="127" t="s">
+      <c r="A57" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="127"/>
+      <c r="B57" s="95"/>
       <c r="C57" s="80"/>
       <c r="D57" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="128" t="s">
+      <c r="A58" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="129"/>
+      <c r="B58" s="97"/>
       <c r="C58" s="81"/>
       <c r="D58" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="128" t="s">
+      <c r="A59" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="129"/>
+      <c r="B59" s="97"/>
       <c r="C59" s="81"/>
       <c r="D59" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="111" t="s">
+      <c r="A60" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="111"/>
+      <c r="B60" s="126"/>
       <c r="C60" s="81"/>
       <c r="D60" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="105" t="s">
+      <c r="A61" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="105"/>
+      <c r="B61" s="127"/>
       <c r="C61" s="82"/>
       <c r="D61" s="4" t="s">
         <v>105</v>
@@ -3277,10 +3277,10 @@
       </c>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="113"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="82"/>
       <c r="D62" s="4" t="s">
         <v>55</v>
@@ -3290,10 +3290,10 @@
       </c>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="112" t="s">
+      <c r="A63" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="113"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="82"/>
       <c r="D63" s="4" t="s">
         <v>55</v>
@@ -3303,40 +3303,40 @@
       </c>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="112" t="s">
+      <c r="A64" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="113"/>
+      <c r="B64" s="129"/>
       <c r="C64" s="82"/>
       <c r="D64" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="112" t="s">
+      <c r="A65" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="113"/>
+      <c r="B65" s="129"/>
       <c r="C65" s="82"/>
       <c r="D65" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="105" t="s">
+      <c r="A66" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="105"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="82"/>
       <c r="D66" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="105" t="s">
+      <c r="A67" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="105"/>
+      <c r="B67" s="127"/>
       <c r="C67" s="82"/>
       <c r="D67" s="4" t="str">
         <f>D61</f>
@@ -3344,20 +3344,20 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="105" t="s">
+      <c r="A68" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="105"/>
+      <c r="B68" s="127"/>
       <c r="C68" s="82"/>
       <c r="D68" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="105" t="s">
+      <c r="A69" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="105"/>
+      <c r="B69" s="127"/>
       <c r="C69" s="82"/>
       <c r="D69" s="4" t="s">
         <v>55</v>
@@ -3367,10 +3367,10 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="105" t="s">
+      <c r="A70" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="105"/>
+      <c r="B70" s="127"/>
       <c r="C70" s="82"/>
       <c r="D70" s="4" t="s">
         <v>55</v>
@@ -3380,10 +3380,10 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="105" t="s">
+      <c r="A71" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="105"/>
+      <c r="B71" s="127"/>
       <c r="C71" s="82"/>
       <c r="D71" s="4" t="s">
         <v>55</v>
@@ -3393,10 +3393,10 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="105" t="s">
+      <c r="A72" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="105"/>
+      <c r="B72" s="127"/>
       <c r="C72" s="82"/>
       <c r="D72" s="4" t="s">
         <v>55</v>
@@ -3406,10 +3406,10 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="105" t="s">
+      <c r="A73" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="105"/>
+      <c r="B73" s="127"/>
       <c r="C73" s="82"/>
       <c r="D73" s="4" t="s">
         <v>55</v>
@@ -3419,10 +3419,10 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="105" t="s">
+      <c r="A74" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="105"/>
+      <c r="B74" s="127"/>
       <c r="C74" s="82"/>
       <c r="D74" s="4" t="s">
         <v>55</v>
@@ -3432,10 +3432,10 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="105" t="s">
+      <c r="A75" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="105"/>
+      <c r="B75" s="127"/>
       <c r="C75" s="82"/>
       <c r="D75" s="4" t="s">
         <v>55</v>
@@ -3445,10 +3445,10 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="105" t="s">
+      <c r="A76" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="105"/>
+      <c r="B76" s="127"/>
       <c r="C76" s="82"/>
       <c r="D76" s="4" t="s">
         <v>55</v>
@@ -3458,10 +3458,10 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="105" t="s">
+      <c r="A77" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="105"/>
+      <c r="B77" s="127"/>
       <c r="C77" s="82"/>
       <c r="D77" s="4" t="s">
         <v>55</v>
@@ -3471,10 +3471,10 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="105" t="s">
+      <c r="A78" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="105"/>
+      <c r="B78" s="127"/>
       <c r="C78" s="82"/>
       <c r="D78" s="4" t="s">
         <v>55</v>
@@ -3496,38 +3496,38 @@
       <c r="H81" s="22"/>
     </row>
     <row r="82" spans="1:33" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="106" t="s">
+      <c r="A82" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B82" s="107"/>
-      <c r="C82" s="107"/>
-      <c r="D82" s="107"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="107"/>
-      <c r="G82" s="107"/>
-      <c r="H82" s="107"/>
-      <c r="I82" s="107"/>
-      <c r="J82" s="107"/>
-      <c r="K82" s="107"/>
-      <c r="L82" s="108"/>
-      <c r="O82" s="86" t="s">
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="111"/>
+      <c r="I82" s="111"/>
+      <c r="J82" s="111"/>
+      <c r="K82" s="111"/>
+      <c r="L82" s="112"/>
+      <c r="O82" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="P82" s="87"/>
-      <c r="Q82" s="87"/>
-      <c r="R82" s="87"/>
-      <c r="S82" s="87"/>
-      <c r="T82" s="87"/>
-      <c r="U82" s="87"/>
-      <c r="V82" s="87"/>
-      <c r="W82" s="87"/>
-      <c r="X82" s="87"/>
-      <c r="Y82" s="87"/>
-      <c r="Z82" s="87"/>
-      <c r="AA82" s="87"/>
-      <c r="AB82" s="87"/>
-      <c r="AC82" s="87"/>
-      <c r="AD82" s="88"/>
+      <c r="P82" s="137"/>
+      <c r="Q82" s="137"/>
+      <c r="R82" s="137"/>
+      <c r="S82" s="137"/>
+      <c r="T82" s="137"/>
+      <c r="U82" s="137"/>
+      <c r="V82" s="137"/>
+      <c r="W82" s="137"/>
+      <c r="X82" s="137"/>
+      <c r="Y82" s="137"/>
+      <c r="Z82" s="137"/>
+      <c r="AA82" s="137"/>
+      <c r="AB82" s="137"/>
+      <c r="AC82" s="137"/>
+      <c r="AD82" s="138"/>
       <c r="AE82" s="79"/>
     </row>
     <row r="83" spans="1:33" ht="15" thickTop="1">
@@ -3604,17 +3604,17 @@
       <c r="AD85" s="52"/>
     </row>
     <row r="86" spans="1:33">
-      <c r="A86" s="89" t="s">
+      <c r="A86" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="89"/>
-      <c r="C86" s="89"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="89"/>
-      <c r="F86" s="89"/>
-      <c r="G86" s="89"/>
-      <c r="H86" s="89"/>
-      <c r="I86" s="89"/>
+      <c r="B86" s="120"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="120"/>
+      <c r="E86" s="120"/>
+      <c r="F86" s="120"/>
+      <c r="G86" s="120"/>
+      <c r="H86" s="120"/>
+      <c r="I86" s="120"/>
       <c r="O86" s="51"/>
       <c r="P86" s="38"/>
       <c r="Q86" s="38"/>
@@ -3654,9 +3654,9 @@
       <c r="G87" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K87" s="90"/>
-      <c r="L87" s="91"/>
-      <c r="M87" s="91"/>
+      <c r="K87" s="121"/>
+      <c r="L87" s="122"/>
+      <c r="M87" s="122"/>
       <c r="O87" s="51"/>
       <c r="P87" s="38"/>
       <c r="Q87" s="38"/>
@@ -3770,31 +3770,31 @@
       <c r="AD90" s="52"/>
     </row>
     <row r="91" spans="1:33" ht="45" customHeight="1">
-      <c r="A91" s="92" t="s">
+      <c r="A91" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="94" t="s">
+      <c r="B91" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="132" t="s">
+      <c r="C91" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="D91" s="97" t="s">
+      <c r="D91" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="95" t="s">
+      <c r="E91" s="90" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G91" s="95" t="s">
+      <c r="G91" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="H91" s="109" t="s">
+      <c r="H91" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="I91" s="95" t="s">
+      <c r="I91" s="90" t="s">
         <v>22</v>
       </c>
       <c r="J91" s="24" t="s">
@@ -3809,85 +3809,85 @@
       <c r="M91" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O91" s="97" t="s">
+      <c r="O91" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="P91" s="98" t="s">
+      <c r="P91" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="Q91" s="98" t="s">
+      <c r="Q91" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="R91" s="98" t="s">
+      <c r="R91" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="S91" s="98" t="s">
+      <c r="S91" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="T91" s="98" t="s">
+      <c r="T91" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="U91" s="98" t="s">
+      <c r="U91" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="V91" s="98" t="s">
+      <c r="V91" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="W91" s="98" t="s">
+      <c r="W91" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="X91" s="98" t="s">
+      <c r="X91" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="Y91" s="98" t="s">
+      <c r="Y91" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="Z91" s="98" t="s">
+      <c r="Z91" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="AA91" s="98" t="s">
+      <c r="AA91" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="AB91" s="98" t="s">
+      <c r="AB91" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="AC91" s="98" t="s">
+      <c r="AC91" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="AD91" s="99" t="s">
+      <c r="AD91" s="109" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:33">
-      <c r="A92" s="93"/>
-      <c r="B92" s="94"/>
-      <c r="C92" s="133"/>
-      <c r="D92" s="97"/>
-      <c r="E92" s="96"/>
+      <c r="A92" s="124"/>
+      <c r="B92" s="125"/>
+      <c r="C92" s="102"/>
+      <c r="D92" s="107"/>
+      <c r="E92" s="91"/>
       <c r="F92" s="26"/>
-      <c r="G92" s="96"/>
-      <c r="H92" s="110"/>
-      <c r="I92" s="96"/>
+      <c r="G92" s="91"/>
+      <c r="H92" s="131"/>
+      <c r="I92" s="91"/>
       <c r="J92" s="26"/>
       <c r="K92" s="26"/>
       <c r="L92" s="26"/>
       <c r="M92" s="26"/>
-      <c r="O92" s="97"/>
-      <c r="P92" s="98"/>
-      <c r="Q92" s="98"/>
-      <c r="R92" s="98"/>
-      <c r="S92" s="98"/>
-      <c r="T92" s="98"/>
-      <c r="U92" s="98"/>
-      <c r="V92" s="98"/>
-      <c r="W92" s="98"/>
-      <c r="X92" s="98"/>
-      <c r="Y92" s="98"/>
-      <c r="Z92" s="98"/>
-      <c r="AA92" s="98"/>
-      <c r="AB92" s="98"/>
-      <c r="AC92" s="98"/>
-      <c r="AD92" s="99"/>
+      <c r="O92" s="107"/>
+      <c r="P92" s="108"/>
+      <c r="Q92" s="108"/>
+      <c r="R92" s="108"/>
+      <c r="S92" s="108"/>
+      <c r="T92" s="108"/>
+      <c r="U92" s="108"/>
+      <c r="V92" s="108"/>
+      <c r="W92" s="108"/>
+      <c r="X92" s="108"/>
+      <c r="Y92" s="108"/>
+      <c r="Z92" s="108"/>
+      <c r="AA92" s="108"/>
+      <c r="AB92" s="108"/>
+      <c r="AC92" s="108"/>
+      <c r="AD92" s="109"/>
     </row>
     <row r="93" spans="1:33" ht="15">
       <c r="A93" s="1" t="s">
@@ -4266,23 +4266,23 @@
       </c>
     </row>
     <row r="97" spans="1:31" ht="63" customHeight="1" thickTop="1">
-      <c r="A97" s="130" t="s">
+      <c r="A97" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="131"/>
-      <c r="C97" s="131"/>
-      <c r="D97" s="131"/>
-      <c r="E97" s="131"/>
-      <c r="F97" s="131"/>
-      <c r="G97" s="131"/>
-      <c r="H97" s="131"/>
-      <c r="I97" s="131"/>
-      <c r="J97" s="122" t="s">
+      <c r="B97" s="100"/>
+      <c r="C97" s="100"/>
+      <c r="D97" s="100"/>
+      <c r="E97" s="100"/>
+      <c r="F97" s="100"/>
+      <c r="G97" s="100"/>
+      <c r="H97" s="100"/>
+      <c r="I97" s="100"/>
+      <c r="J97" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="K97" s="122"/>
-      <c r="L97" s="122"/>
-      <c r="M97" s="122"/>
+      <c r="K97" s="98"/>
+      <c r="L97" s="98"/>
+      <c r="M97" s="98"/>
     </row>
     <row r="98" spans="1:31" s="64" customFormat="1">
       <c r="A98" s="72"/>
@@ -4304,60 +4304,60 @@
       </c>
     </row>
     <row r="101" spans="1:31">
-      <c r="A101" s="98" t="s">
+      <c r="A101" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="B101" s="98"/>
+      <c r="B101" s="108"/>
       <c r="C101" s="83"/>
       <c r="D101" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:31">
-      <c r="A102" s="98" t="s">
+      <c r="A102" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B102" s="98"/>
+      <c r="B102" s="108"/>
       <c r="C102" s="83"/>
       <c r="D102" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:31">
-      <c r="A103" s="98" t="s">
+      <c r="A103" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="98"/>
+      <c r="B103" s="108"/>
       <c r="C103" s="83"/>
       <c r="D103" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:31">
-      <c r="A104" s="98" t="s">
+      <c r="A104" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="B104" s="98"/>
+      <c r="B104" s="108"/>
       <c r="C104" s="83"/>
       <c r="D104" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:31">
-      <c r="A105" s="98" t="s">
+      <c r="A105" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="B105" s="98"/>
+      <c r="B105" s="108"/>
       <c r="C105" s="83"/>
       <c r="D105" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:31">
-      <c r="A106" s="99" t="s">
+      <c r="A106" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="B106" s="99"/>
+      <c r="B106" s="109"/>
       <c r="C106" s="83"/>
       <c r="D106" s="4" t="s">
         <v>81</v>
@@ -4376,39 +4376,39 @@
       <c r="H110" s="22"/>
     </row>
     <row r="111" spans="1:31" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A111" s="106" t="s">
+      <c r="A111" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B111" s="107"/>
-      <c r="C111" s="107"/>
-      <c r="D111" s="107"/>
-      <c r="E111" s="107"/>
-      <c r="F111" s="107"/>
-      <c r="G111" s="107"/>
-      <c r="H111" s="107"/>
-      <c r="I111" s="107"/>
-      <c r="J111" s="107"/>
-      <c r="K111" s="107"/>
-      <c r="L111" s="108"/>
-      <c r="O111" s="86" t="s">
+      <c r="B111" s="111"/>
+      <c r="C111" s="111"/>
+      <c r="D111" s="111"/>
+      <c r="E111" s="111"/>
+      <c r="F111" s="111"/>
+      <c r="G111" s="111"/>
+      <c r="H111" s="111"/>
+      <c r="I111" s="111"/>
+      <c r="J111" s="111"/>
+      <c r="K111" s="111"/>
+      <c r="L111" s="112"/>
+      <c r="O111" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="P111" s="87"/>
-      <c r="Q111" s="87"/>
-      <c r="R111" s="87"/>
-      <c r="S111" s="87"/>
-      <c r="T111" s="87"/>
-      <c r="U111" s="87"/>
-      <c r="V111" s="87"/>
-      <c r="W111" s="87"/>
-      <c r="X111" s="87"/>
-      <c r="Y111" s="87"/>
-      <c r="Z111" s="87"/>
-      <c r="AA111" s="87"/>
-      <c r="AB111" s="87"/>
-      <c r="AC111" s="87"/>
-      <c r="AD111" s="87"/>
-      <c r="AE111" s="88"/>
+      <c r="P111" s="137"/>
+      <c r="Q111" s="137"/>
+      <c r="R111" s="137"/>
+      <c r="S111" s="137"/>
+      <c r="T111" s="137"/>
+      <c r="U111" s="137"/>
+      <c r="V111" s="137"/>
+      <c r="W111" s="137"/>
+      <c r="X111" s="137"/>
+      <c r="Y111" s="137"/>
+      <c r="Z111" s="137"/>
+      <c r="AA111" s="137"/>
+      <c r="AB111" s="137"/>
+      <c r="AC111" s="137"/>
+      <c r="AD111" s="137"/>
+      <c r="AE111" s="138"/>
     </row>
     <row r="112" spans="1:31" ht="15" thickTop="1">
       <c r="A112" s="5" t="s">
@@ -4487,17 +4487,17 @@
       <c r="AE114" s="52"/>
     </row>
     <row r="115" spans="1:34">
-      <c r="A115" s="89" t="s">
+      <c r="A115" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="B115" s="89"/>
-      <c r="C115" s="89"/>
-      <c r="D115" s="89"/>
-      <c r="E115" s="89"/>
-      <c r="F115" s="89"/>
-      <c r="G115" s="89"/>
-      <c r="H115" s="89"/>
-      <c r="I115" s="89"/>
+      <c r="B115" s="120"/>
+      <c r="C115" s="120"/>
+      <c r="D115" s="120"/>
+      <c r="E115" s="120"/>
+      <c r="F115" s="120"/>
+      <c r="G115" s="120"/>
+      <c r="H115" s="120"/>
+      <c r="I115" s="120"/>
       <c r="O115" s="51"/>
       <c r="P115" s="38"/>
       <c r="Q115" s="38"/>
@@ -4540,9 +4540,9 @@
       <c r="I116" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K116" s="90"/>
-      <c r="L116" s="91"/>
-      <c r="M116" s="91"/>
+      <c r="K116" s="121"/>
+      <c r="L116" s="122"/>
+      <c r="M116" s="122"/>
       <c r="O116" s="51"/>
       <c r="P116" s="38"/>
       <c r="Q116" s="38"/>
@@ -4662,28 +4662,28 @@
       <c r="AE119" s="52"/>
     </row>
     <row r="120" spans="1:34" ht="45" customHeight="1">
-      <c r="A120" s="92" t="s">
+      <c r="A120" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="94" t="s">
+      <c r="B120" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C120" s="132" t="s">
+      <c r="C120" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="136" t="s">
+      <c r="D120" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="95" t="s">
+      <c r="E120" s="90" t="s">
         <v>122</v>
       </c>
       <c r="F120" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G120" s="95" t="s">
+      <c r="G120" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="H120" s="134" t="s">
+      <c r="H120" s="103" t="s">
         <v>27</v>
       </c>
       <c r="I120" s="25" t="s">
@@ -4701,89 +4701,89 @@
       <c r="M120" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O120" s="97" t="s">
+      <c r="O120" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="P120" s="98" t="s">
+      <c r="P120" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="Q120" s="98" t="s">
+      <c r="Q120" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="R120" s="98" t="s">
+      <c r="R120" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="S120" s="98" t="s">
+      <c r="S120" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="T120" s="98" t="s">
+      <c r="T120" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="U120" s="98" t="s">
+      <c r="U120" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="V120" s="98" t="s">
+      <c r="V120" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="W120" s="98" t="s">
+      <c r="W120" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="X120" s="98" t="s">
+      <c r="X120" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="Y120" s="98" t="s">
+      <c r="Y120" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="Z120" s="98" t="s">
+      <c r="Z120" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="AA120" s="98" t="s">
+      <c r="AA120" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="AB120" s="98" t="s">
+      <c r="AB120" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="AC120" s="100" t="s">
+      <c r="AC120" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="AD120" s="98" t="s">
+      <c r="AD120" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="AE120" s="99" t="s">
+      <c r="AE120" s="109" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:34">
-      <c r="A121" s="93"/>
-      <c r="B121" s="94"/>
-      <c r="C121" s="133"/>
-      <c r="D121" s="137"/>
-      <c r="E121" s="96"/>
+      <c r="A121" s="124"/>
+      <c r="B121" s="125"/>
+      <c r="C121" s="102"/>
+      <c r="D121" s="106"/>
+      <c r="E121" s="91"/>
       <c r="F121" s="26"/>
-      <c r="G121" s="96"/>
-      <c r="H121" s="135"/>
+      <c r="G121" s="91"/>
+      <c r="H121" s="104"/>
       <c r="I121" s="25"/>
       <c r="J121" s="26"/>
       <c r="K121" s="26"/>
       <c r="L121" s="26"/>
       <c r="M121" s="26"/>
-      <c r="O121" s="97"/>
-      <c r="P121" s="98"/>
-      <c r="Q121" s="98"/>
-      <c r="R121" s="98"/>
-      <c r="S121" s="98"/>
-      <c r="T121" s="98"/>
-      <c r="U121" s="98"/>
-      <c r="V121" s="98"/>
-      <c r="W121" s="98"/>
-      <c r="X121" s="98"/>
-      <c r="Y121" s="98"/>
-      <c r="Z121" s="98"/>
-      <c r="AA121" s="98"/>
-      <c r="AB121" s="98"/>
-      <c r="AC121" s="100"/>
-      <c r="AD121" s="98"/>
-      <c r="AE121" s="99"/>
+      <c r="O121" s="107"/>
+      <c r="P121" s="108"/>
+      <c r="Q121" s="108"/>
+      <c r="R121" s="108"/>
+      <c r="S121" s="108"/>
+      <c r="T121" s="108"/>
+      <c r="U121" s="108"/>
+      <c r="V121" s="108"/>
+      <c r="W121" s="108"/>
+      <c r="X121" s="108"/>
+      <c r="Y121" s="108"/>
+      <c r="Z121" s="108"/>
+      <c r="AA121" s="108"/>
+      <c r="AB121" s="108"/>
+      <c r="AC121" s="139"/>
+      <c r="AD121" s="108"/>
+      <c r="AE121" s="109"/>
     </row>
     <row r="122" spans="1:34" ht="15">
       <c r="A122" s="1" t="s">
@@ -5174,23 +5174,23 @@
       </c>
     </row>
     <row r="126" spans="1:34" ht="72" customHeight="1" thickTop="1">
-      <c r="A126" s="130" t="s">
+      <c r="A126" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="B126" s="131"/>
-      <c r="C126" s="131"/>
-      <c r="D126" s="131"/>
-      <c r="E126" s="131"/>
-      <c r="F126" s="131"/>
-      <c r="G126" s="131"/>
-      <c r="H126" s="131"/>
-      <c r="I126" s="131"/>
-      <c r="J126" s="122" t="s">
+      <c r="B126" s="100"/>
+      <c r="C126" s="100"/>
+      <c r="D126" s="100"/>
+      <c r="E126" s="100"/>
+      <c r="F126" s="100"/>
+      <c r="G126" s="100"/>
+      <c r="H126" s="100"/>
+      <c r="I126" s="100"/>
+      <c r="J126" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="K126" s="122"/>
-      <c r="L126" s="122"/>
-      <c r="M126" s="122"/>
+      <c r="K126" s="98"/>
+      <c r="L126" s="98"/>
+      <c r="M126" s="98"/>
       <c r="AC126" s="67" t="s">
         <v>124</v>
       </c>
@@ -5222,6 +5222,111 @@
     </row>
   </sheetData>
   <mergeCells count="129">
+    <mergeCell ref="O111:AE111"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="O120:O121"/>
+    <mergeCell ref="Y120:Y121"/>
+    <mergeCell ref="P120:P121"/>
+    <mergeCell ref="Q120:Q121"/>
+    <mergeCell ref="R120:R121"/>
+    <mergeCell ref="S120:S121"/>
+    <mergeCell ref="T120:T121"/>
+    <mergeCell ref="U120:U121"/>
+    <mergeCell ref="AB120:AB121"/>
+    <mergeCell ref="AD120:AD121"/>
+    <mergeCell ref="AE120:AE121"/>
+    <mergeCell ref="AC120:AC121"/>
+    <mergeCell ref="V120:V121"/>
+    <mergeCell ref="W120:W121"/>
+    <mergeCell ref="X120:X121"/>
+    <mergeCell ref="Z120:Z121"/>
+    <mergeCell ref="AA120:AA121"/>
+    <mergeCell ref="AD91:AD92"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="X91:X92"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="O82:AD82"/>
+    <mergeCell ref="AA91:AA92"/>
+    <mergeCell ref="R91:R92"/>
+    <mergeCell ref="S91:S92"/>
+    <mergeCell ref="T91:T92"/>
+    <mergeCell ref="U91:U92"/>
+    <mergeCell ref="V91:V92"/>
+    <mergeCell ref="W91:W92"/>
+    <mergeCell ref="AB91:AB92"/>
+    <mergeCell ref="AC91:AC92"/>
+    <mergeCell ref="O91:O92"/>
+    <mergeCell ref="P91:P92"/>
+    <mergeCell ref="Q91:Q92"/>
+    <mergeCell ref="Y91:Y92"/>
+    <mergeCell ref="Z91:Z92"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A82:L82"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="AA39:AA40"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="O30:AA30"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="A10:J11"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
     <mergeCell ref="A45:H45"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="G39:G40"/>
@@ -5246,111 +5351,6 @@
     <mergeCell ref="A105:B105"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="A111:L111"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="AA39:AA40"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="O30:AA30"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="A10:J11"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="Z91:Z92"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A82:L82"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="AD91:AD92"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="X91:X92"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="O82:AD82"/>
-    <mergeCell ref="AA91:AA92"/>
-    <mergeCell ref="R91:R92"/>
-    <mergeCell ref="S91:S92"/>
-    <mergeCell ref="T91:T92"/>
-    <mergeCell ref="U91:U92"/>
-    <mergeCell ref="V91:V92"/>
-    <mergeCell ref="W91:W92"/>
-    <mergeCell ref="AB91:AB92"/>
-    <mergeCell ref="AC91:AC92"/>
-    <mergeCell ref="O91:O92"/>
-    <mergeCell ref="P91:P92"/>
-    <mergeCell ref="Q91:Q92"/>
-    <mergeCell ref="Y91:Y92"/>
-    <mergeCell ref="O111:AE111"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="O120:O121"/>
-    <mergeCell ref="Y120:Y121"/>
-    <mergeCell ref="P120:P121"/>
-    <mergeCell ref="Q120:Q121"/>
-    <mergeCell ref="R120:R121"/>
-    <mergeCell ref="S120:S121"/>
-    <mergeCell ref="T120:T121"/>
-    <mergeCell ref="U120:U121"/>
-    <mergeCell ref="AB120:AB121"/>
-    <mergeCell ref="AD120:AD121"/>
-    <mergeCell ref="AE120:AE121"/>
-    <mergeCell ref="AC120:AC121"/>
-    <mergeCell ref="V120:V121"/>
-    <mergeCell ref="W120:W121"/>
-    <mergeCell ref="X120:X121"/>
-    <mergeCell ref="Z120:Z121"/>
-    <mergeCell ref="AA120:AA121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5361,8 +5361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5370,61 +5370,61 @@
     <col min="1" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="139" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:11" s="87" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="D1" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="139" t="s">
+      <c r="F1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="139" t="s">
+      <c r="G1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="139" t="s">
+      <c r="H1" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="139" t="s">
+      <c r="I1" s="87" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="138">
+      <c r="D2" s="86">
         <v>42229</v>
       </c>
-      <c r="E2" s="138">
+      <c r="E2" s="86">
         <v>2399</v>
       </c>
-      <c r="F2" s="138">
+      <c r="F2" s="86">
         <v>2415</v>
       </c>
-      <c r="G2" s="138">
+      <c r="G2" s="86">
         <v>2385</v>
       </c>
-      <c r="H2" s="138">
+      <c r="H2" s="86">
         <v>42234</v>
       </c>
-      <c r="I2" s="138">
+      <c r="I2" s="86">
         <v>2392</v>
       </c>
       <c r="J2">
@@ -5432,31 +5432,31 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="138">
+      <c r="D3" s="86">
         <v>42195</v>
       </c>
-      <c r="E3" s="138">
+      <c r="E3" s="86">
         <v>1896</v>
       </c>
-      <c r="F3" s="138">
+      <c r="F3" s="86">
         <v>1914</v>
       </c>
-      <c r="G3" s="138">
+      <c r="G3" s="86">
         <v>1885</v>
       </c>
-      <c r="H3" s="138">
+      <c r="H3" s="86">
         <v>42231</v>
       </c>
-      <c r="I3" s="138">
+      <c r="I3" s="86">
         <v>1893</v>
       </c>
       <c r="J3">
@@ -5464,31 +5464,31 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="138">
+      <c r="D4" s="86">
         <v>42235</v>
       </c>
-      <c r="E4" s="138">
+      <c r="E4" s="86">
         <v>830</v>
       </c>
-      <c r="F4" s="138">
+      <c r="F4" s="86">
         <v>837</v>
       </c>
-      <c r="G4" s="138">
+      <c r="G4" s="86">
         <v>826</v>
       </c>
-      <c r="H4" s="138">
+      <c r="H4" s="86">
         <v>42242</v>
       </c>
-      <c r="I4" s="138">
+      <c r="I4" s="86">
         <v>837</v>
       </c>
       <c r="J4">
@@ -5496,31 +5496,31 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="138">
+      <c r="D5" s="86">
         <v>42197</v>
       </c>
-      <c r="E5" s="138">
+      <c r="E5" s="86">
         <v>293.5</v>
       </c>
-      <c r="F5" s="138">
+      <c r="F5" s="86">
         <v>297</v>
       </c>
-      <c r="G5" s="138">
+      <c r="G5" s="86">
         <v>292</v>
       </c>
-      <c r="H5" s="138">
+      <c r="H5" s="86">
         <v>42216</v>
       </c>
-      <c r="I5" s="138">
+      <c r="I5" s="86">
         <v>294.2</v>
       </c>
       <c r="J5">
@@ -5528,32 +5528,32 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="138">
+      <c r="D6" s="86">
         <v>42373</v>
       </c>
-      <c r="E6" s="138">
+      <c r="E6" s="86">
         <v>140.9</v>
       </c>
-      <c r="F6" s="138">
+      <c r="F6" s="86">
         <v>140.9</v>
       </c>
-      <c r="G6" s="138">
+      <c r="G6" s="86">
         <f>E6*95%</f>
         <v>133.85499999999999</v>
       </c>
-      <c r="H6" s="138">
+      <c r="H6" s="86">
         <v>42373</v>
       </c>
-      <c r="I6" s="138">
+      <c r="I6" s="86">
         <v>140.9</v>
       </c>
       <c r="J6">
@@ -5561,272 +5561,272 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="138">
+      <c r="D7" s="86">
         <v>42373</v>
       </c>
-      <c r="E7" s="138">
+      <c r="E7" s="86">
         <v>142.4</v>
       </c>
-      <c r="F7" s="138">
+      <c r="F7" s="86">
         <v>143.69999999999999</v>
       </c>
-      <c r="G7" s="138">
+      <c r="G7" s="86">
         <f t="shared" ref="G7:G30" si="0">E7*95%</f>
         <v>135.28</v>
       </c>
-      <c r="H7" s="138">
+      <c r="H7" s="86">
         <v>42373</v>
       </c>
-      <c r="I7" s="138">
+      <c r="I7" s="86">
         <v>143.69999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="138">
+      <c r="D8" s="86">
         <v>42374</v>
       </c>
-      <c r="E8" s="138">
+      <c r="E8" s="86">
         <v>261.8</v>
       </c>
-      <c r="F8" s="138">
+      <c r="F8" s="86">
         <v>264.12</v>
       </c>
-      <c r="G8" s="138">
+      <c r="G8" s="86">
         <f t="shared" si="0"/>
         <v>248.71</v>
       </c>
-      <c r="H8" s="138">
+      <c r="H8" s="86">
         <v>42374</v>
       </c>
-      <c r="I8" s="138">
+      <c r="I8" s="86">
         <v>264.12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="138">
+      <c r="D9" s="86">
         <v>42375</v>
       </c>
-      <c r="E9" s="138">
+      <c r="E9" s="86">
         <v>327</v>
       </c>
-      <c r="F9" s="138">
+      <c r="F9" s="86">
         <v>331</v>
       </c>
-      <c r="G9" s="138">
+      <c r="G9" s="86">
         <f t="shared" si="0"/>
         <v>310.64999999999998</v>
       </c>
-      <c r="H9" s="138">
+      <c r="H9" s="86">
         <v>42375</v>
       </c>
-      <c r="I9" s="138">
+      <c r="I9" s="86">
         <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="138">
+      <c r="D10" s="86">
         <v>42376</v>
       </c>
-      <c r="E10" s="138">
+      <c r="E10" s="86">
         <v>323.3</v>
       </c>
-      <c r="F10" s="138">
+      <c r="F10" s="86">
         <v>325</v>
       </c>
-      <c r="G10" s="138">
+      <c r="G10" s="86">
         <f t="shared" si="0"/>
         <v>307.13499999999999</v>
       </c>
-      <c r="H10" s="138">
+      <c r="H10" s="86">
         <v>42376</v>
       </c>
-      <c r="I10" s="138">
+      <c r="I10" s="86">
         <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="138">
+      <c r="D11" s="86">
         <v>42377</v>
       </c>
-      <c r="E11" s="138">
+      <c r="E11" s="86">
         <v>351.5</v>
       </c>
-      <c r="F11" s="138">
+      <c r="F11" s="86">
         <v>355.5</v>
       </c>
-      <c r="G11" s="138">
+      <c r="G11" s="86">
         <f t="shared" si="0"/>
         <v>333.92500000000001</v>
       </c>
-      <c r="H11" s="138">
+      <c r="H11" s="86">
         <v>42377</v>
       </c>
-      <c r="I11" s="138">
+      <c r="I11" s="86">
         <v>355.5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="138">
+      <c r="D12" s="86">
         <v>42380</v>
       </c>
-      <c r="E12" s="138">
+      <c r="E12" s="86">
         <v>204.8</v>
       </c>
-      <c r="F12" s="138">
+      <c r="F12" s="86">
         <v>206.8</v>
       </c>
-      <c r="G12" s="138">
+      <c r="G12" s="86">
         <f t="shared" si="0"/>
         <v>194.56</v>
       </c>
-      <c r="H12" s="138">
+      <c r="H12" s="86">
         <v>42380</v>
       </c>
-      <c r="I12" s="138">
+      <c r="I12" s="86">
         <v>206.8</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="138">
+      <c r="D13" s="86">
         <v>42380</v>
       </c>
-      <c r="E13" s="138">
+      <c r="E13" s="86">
         <v>315.60000000000002</v>
       </c>
-      <c r="F13" s="138">
+      <c r="F13" s="86">
         <v>316</v>
       </c>
-      <c r="G13" s="138">
+      <c r="G13" s="86">
         <f t="shared" si="0"/>
         <v>299.82</v>
       </c>
-      <c r="H13" s="138">
+      <c r="H13" s="86">
         <v>42380</v>
       </c>
-      <c r="I13" s="138">
+      <c r="I13" s="86">
         <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="138">
+      <c r="D14" s="86">
         <v>42381</v>
       </c>
-      <c r="E14" s="138">
+      <c r="E14" s="86">
         <v>1349</v>
       </c>
-      <c r="F14" s="138">
+      <c r="F14" s="86">
         <v>1360</v>
       </c>
-      <c r="G14" s="138">
+      <c r="G14" s="86">
         <f t="shared" si="0"/>
         <v>1281.55</v>
       </c>
-      <c r="H14" s="138">
+      <c r="H14" s="86">
         <v>42381</v>
       </c>
-      <c r="I14" s="138">
+      <c r="I14" s="86">
         <v>1360</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="138">
+      <c r="D15" s="86">
         <v>42381</v>
       </c>
-      <c r="E15" s="138">
+      <c r="E15" s="86">
         <v>139.5</v>
       </c>
-      <c r="F15" s="138">
+      <c r="F15" s="86">
         <v>136.30000000000001</v>
       </c>
-      <c r="G15" s="138">
+      <c r="G15" s="86">
         <f t="shared" si="0"/>
         <v>132.52500000000001</v>
       </c>
-      <c r="H15" s="138">
+      <c r="H15" s="86">
         <v>42381</v>
       </c>
-      <c r="I15" s="138">
+      <c r="I15" s="86">
         <v>136.30000000000001</v>
       </c>
       <c r="K15" t="s">
@@ -5834,452 +5834,452 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="138">
+      <c r="D16" s="86">
         <v>42382</v>
       </c>
-      <c r="E16" s="138">
+      <c r="E16" s="86">
         <v>897</v>
       </c>
-      <c r="F16" s="138">
+      <c r="F16" s="86">
         <v>902</v>
       </c>
-      <c r="G16" s="138">
+      <c r="G16" s="86">
         <f t="shared" si="0"/>
         <v>852.15</v>
       </c>
-      <c r="H16" s="138">
+      <c r="H16" s="86">
         <v>42382</v>
       </c>
-      <c r="I16" s="138">
+      <c r="I16" s="86">
         <v>902</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="138" t="s">
+      <c r="C17" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="138">
+      <c r="D17" s="86">
         <v>42382</v>
       </c>
-      <c r="E17" s="138">
+      <c r="E17" s="86">
         <v>260</v>
       </c>
-      <c r="F17" s="138">
+      <c r="F17" s="86">
         <v>247.3</v>
       </c>
-      <c r="G17" s="138">
+      <c r="G17" s="86">
         <f t="shared" si="0"/>
         <v>247</v>
       </c>
-      <c r="H17" s="138">
+      <c r="H17" s="86">
         <v>42382</v>
       </c>
-      <c r="I17" s="138">
+      <c r="I17" s="86">
         <v>247.3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="138" t="s">
+      <c r="C18" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="138">
+      <c r="D18" s="86">
         <v>42383</v>
       </c>
-      <c r="E18" s="138">
+      <c r="E18" s="86">
         <v>543.29999999999995</v>
       </c>
-      <c r="F18" s="138">
+      <c r="F18" s="86">
         <v>537.1</v>
       </c>
-      <c r="G18" s="138">
+      <c r="G18" s="86">
         <f t="shared" si="0"/>
         <v>516.13499999999988</v>
       </c>
-      <c r="H18" s="138">
+      <c r="H18" s="86">
         <v>42383</v>
       </c>
-      <c r="I18" s="138">
+      <c r="I18" s="86">
         <v>537.1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="138" t="s">
+      <c r="C19" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="138">
+      <c r="D19" s="86">
         <v>42384</v>
       </c>
-      <c r="E19" s="138">
+      <c r="E19" s="86">
         <v>121.3</v>
       </c>
-      <c r="F19" s="138">
+      <c r="F19" s="86">
         <v>118.5</v>
       </c>
-      <c r="G19" s="138">
+      <c r="G19" s="86">
         <f t="shared" si="0"/>
         <v>115.23499999999999</v>
       </c>
-      <c r="H19" s="138">
+      <c r="H19" s="86">
         <v>42384</v>
       </c>
-      <c r="I19" s="138">
+      <c r="I19" s="86">
         <v>118.5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="138" t="s">
+      <c r="B20" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="138" t="s">
+      <c r="C20" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="138">
+      <c r="D20" s="86">
         <v>42384</v>
       </c>
-      <c r="E20" s="138">
+      <c r="E20" s="86">
         <v>921.75</v>
       </c>
-      <c r="F20" s="138">
+      <c r="F20" s="86">
         <v>930</v>
       </c>
-      <c r="G20" s="138">
+      <c r="G20" s="86">
         <f t="shared" si="0"/>
         <v>875.66249999999991</v>
       </c>
-      <c r="H20" s="138">
+      <c r="H20" s="86">
         <v>42384</v>
       </c>
-      <c r="I20" s="138">
+      <c r="I20" s="86">
         <v>930</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="138" t="s">
+      <c r="A21" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="138" t="s">
+      <c r="C21" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="138">
+      <c r="D21" s="86">
         <v>42387</v>
       </c>
-      <c r="E21" s="138">
+      <c r="E21" s="86">
         <v>317.39999999999998</v>
       </c>
-      <c r="F21" s="138">
+      <c r="F21" s="86">
         <v>314.39999999999998</v>
       </c>
-      <c r="G21" s="138">
+      <c r="G21" s="86">
         <f t="shared" si="0"/>
         <v>301.52999999999997</v>
       </c>
-      <c r="H21" s="138">
+      <c r="H21" s="86">
         <v>42387</v>
       </c>
-      <c r="I21" s="138">
+      <c r="I21" s="86">
         <v>314.39999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="138" t="s">
+      <c r="B22" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="138">
+      <c r="D22" s="86">
         <v>42387</v>
       </c>
-      <c r="E22" s="138">
+      <c r="E22" s="86">
         <v>223</v>
       </c>
-      <c r="F22" s="138">
+      <c r="F22" s="86">
         <v>224.1</v>
       </c>
-      <c r="G22" s="138">
+      <c r="G22" s="86">
         <f t="shared" si="0"/>
         <v>211.85</v>
       </c>
-      <c r="H22" s="138">
+      <c r="H22" s="86">
         <v>42387</v>
       </c>
-      <c r="I22" s="138">
+      <c r="I22" s="86">
         <v>224.1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="138" t="s">
+      <c r="A23" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="138" t="s">
+      <c r="B23" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="138" t="s">
+      <c r="C23" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="138">
+      <c r="D23" s="86">
         <v>42388</v>
       </c>
-      <c r="E23" s="138">
+      <c r="E23" s="86">
         <v>381.2</v>
       </c>
-      <c r="F23" s="138">
+      <c r="F23" s="86">
         <v>388</v>
       </c>
-      <c r="G23" s="138">
+      <c r="G23" s="86">
         <f t="shared" si="0"/>
         <v>362.14</v>
       </c>
-      <c r="H23" s="138">
+      <c r="H23" s="86">
         <v>42388</v>
       </c>
-      <c r="I23" s="138">
+      <c r="I23" s="86">
         <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="138" t="s">
+      <c r="A24" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="138" t="s">
+      <c r="C24" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="138">
+      <c r="D24" s="86">
         <v>42389</v>
       </c>
-      <c r="E24" s="138">
+      <c r="E24" s="86">
         <v>381.1</v>
       </c>
-      <c r="F24" s="138">
+      <c r="F24" s="86">
         <v>376.5</v>
       </c>
-      <c r="G24" s="138">
+      <c r="G24" s="86">
         <f>E24*105%</f>
         <v>400.15500000000003</v>
       </c>
-      <c r="H24" s="138">
+      <c r="H24" s="86">
         <v>42389</v>
       </c>
-      <c r="I24" s="138">
+      <c r="I24" s="86">
         <v>385.70000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="138" t="s">
+      <c r="A25" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="138" t="s">
+      <c r="C25" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="138">
+      <c r="D25" s="86">
         <v>42389</v>
       </c>
-      <c r="E25" s="138">
+      <c r="E25" s="86">
         <v>848.5</v>
       </c>
-      <c r="F25" s="138">
+      <c r="F25" s="86">
         <v>834.1</v>
       </c>
-      <c r="G25" s="138">
+      <c r="G25" s="86">
         <f t="shared" si="0"/>
         <v>806.07499999999993</v>
       </c>
-      <c r="H25" s="138">
+      <c r="H25" s="86">
         <v>42389</v>
       </c>
-      <c r="I25" s="138">
+      <c r="I25" s="86">
         <v>834.1</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="138" t="s">
+      <c r="A26" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="138" t="s">
+      <c r="B26" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="138" t="s">
+      <c r="C26" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="138">
+      <c r="D26" s="86">
         <v>42390</v>
       </c>
-      <c r="E26" s="138">
+      <c r="E26" s="86">
         <v>392</v>
       </c>
-      <c r="F26" s="138">
+      <c r="F26" s="86">
         <v>386.5</v>
       </c>
-      <c r="G26" s="138">
+      <c r="G26" s="86">
         <f t="shared" si="0"/>
         <v>372.4</v>
       </c>
-      <c r="H26" s="138">
+      <c r="H26" s="86">
         <v>42390</v>
       </c>
-      <c r="I26" s="138">
+      <c r="I26" s="86">
         <v>386.5</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="138" t="s">
+      <c r="A27" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="138" t="s">
+      <c r="B27" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="138">
+      <c r="D27" s="86">
         <v>42391</v>
       </c>
-      <c r="E27" s="138">
+      <c r="E27" s="86">
         <v>1003.2</v>
       </c>
-      <c r="F27" s="138">
+      <c r="F27" s="86">
         <v>1010.5</v>
       </c>
-      <c r="G27" s="138">
+      <c r="G27" s="86">
         <f t="shared" si="0"/>
         <v>953.04</v>
       </c>
-      <c r="H27" s="138">
+      <c r="H27" s="86">
         <v>42391</v>
       </c>
-      <c r="I27" s="138">
+      <c r="I27" s="86">
         <v>1010.5</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="138">
+      <c r="D28" s="86">
         <v>42396</v>
       </c>
-      <c r="E28" s="138">
+      <c r="E28" s="86">
         <v>821</v>
       </c>
-      <c r="F28" s="138">
+      <c r="F28" s="86">
         <v>813.5</v>
       </c>
-      <c r="G28" s="138">
+      <c r="G28" s="86">
         <f t="shared" si="0"/>
         <v>779.94999999999993</v>
       </c>
-      <c r="H28" s="138">
+      <c r="H28" s="86">
         <v>42396</v>
       </c>
-      <c r="I28" s="138">
+      <c r="I28" s="86">
         <v>813.5</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="138" t="s">
+      <c r="A29" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="138" t="s">
+      <c r="B29" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="138" t="s">
+      <c r="C29" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="138">
+      <c r="D29" s="86">
         <v>42397</v>
       </c>
-      <c r="E29" s="138">
+      <c r="E29" s="86">
         <v>1042.75</v>
       </c>
-      <c r="F29" s="138">
+      <c r="F29" s="86">
         <v>1046.5</v>
       </c>
-      <c r="G29" s="138">
+      <c r="G29" s="86">
         <f t="shared" si="0"/>
         <v>990.61249999999995</v>
       </c>
-      <c r="H29" s="138">
+      <c r="H29" s="86">
         <v>42397</v>
       </c>
-      <c r="I29" s="138">
+      <c r="I29" s="86">
         <v>1046.5</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="138" t="s">
+      <c r="A30" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="B30" s="138" t="s">
+      <c r="B30" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="138" t="s">
+      <c r="C30" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="138">
+      <c r="D30" s="86">
         <v>42398</v>
       </c>
-      <c r="E30" s="138">
+      <c r="E30" s="86">
         <v>1149.7</v>
       </c>
-      <c r="F30" s="138">
+      <c r="F30" s="86">
         <v>1155</v>
       </c>
-      <c r="G30" s="138">
+      <c r="G30" s="86">
         <f t="shared" si="0"/>
         <v>1092.2149999999999</v>
       </c>
-      <c r="H30" s="138">
+      <c r="H30" s="86">
         <v>42398</v>
       </c>
-      <c r="I30" s="138">
+      <c r="I30" s="86">
         <v>1155</v>
       </c>
     </row>
